--- a/biology/Botanique/Square_Gabriel-Pierné/Square_Gabriel-Pierné.xlsx
+++ b/biology/Botanique/Square_Gabriel-Pierné/Square_Gabriel-Pierné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Gabriel-Piern%C3%A9</t>
+          <t>Square_Gabriel-Pierné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Gabriel-Pierné  est un espace vert du 6e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Gabriel-Piern%C3%A9</t>
+          <t>Square_Gabriel-Pierné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est, avec le square Honoré-Champion, l'un des deux squares situés derrière l'Institut de France.
 Ce site est desservi par la ligne 7 à la station de métro Pont-Neuf, par la ligne 4 à la station Saint-Germain-des-Prés et par la ligne 10 à la station Mabillon.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Gabriel-Piern%C3%A9</t>
+          <t>Square_Gabriel-Pierné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square porte le nom du musicien français Gabriel Pierné (1863-1937).
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Gabriel-Piern%C3%A9</t>
+          <t>Square_Gabriel-Pierné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square a été ouvert en 1938.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_Gabriel-Piern%C3%A9</t>
+          <t>Square_Gabriel-Pierné</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square Gabriel-Pierné est situé au croisement de la rue Mazarine et de la rue de Seine, juste à l'arrière de la chapelle du collège des Quatre-Nations.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Square_Gabriel-Piern%C3%A9</t>
+          <t>Square_Gabriel-Pierné</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,12 +657,14 @@
           <t>Éléments particuliers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square Gabriel-Pierné, malgré sa petite superficie (644 m2), comporte plusieurs éléments :
-la fontaine du Marché-aux-Carmes, d'Alexandre-Évariste Fragonard qui date de 1830. Elle a été installée ici en 1930 et inscrite monument historique en 1952[1] ;
+la fontaine du Marché-aux-Carmes, d'Alexandre-Évariste Fragonard qui date de 1830. Elle a été installée ici en 1930 et inscrite monument historique en 1952 ;
 une statue de Marcello Tommasi, Carolina, qui date de 1968 ;
-un catalpa classé « arbre remarquable » en raison de ses dimensions qui, en 2011, étaient de 15 mètres de hauteur pour 2,60 mètres de circonférence[2]. Le catalpa a été abattu en 2021[réf. nécessaire].
+un catalpa classé « arbre remarquable » en raison de ses dimensions qui, en 2011, étaient de 15 mètres de hauteur pour 2,60 mètres de circonférence. Le catalpa a été abattu en 2021[réf. nécessaire].
 			Une des entrées du square.
 			La fontaine du Marché-aux-Carmes.
 			Banc du square.
